--- a/shiksha-server/sheet.xlsx
+++ b/shiksha-server/sheet.xlsx
@@ -446,64 +446,61 @@
         <v>brochure</v>
       </c>
       <c r="O1" t="str">
-        <v>subscriptionType</v>
+        <v>courses</v>
+      </c>
+      <c r="P1" t="str">
+        <v>collegeInfo</v>
       </c>
       <c r="Q1" t="str">
-        <v>collegeInfo</v>
+        <v>courseInfo</v>
       </c>
       <c r="R1" t="str">
-        <v>isTrending</v>
+        <v>admissionInfo</v>
       </c>
       <c r="S1" t="str">
-        <v>courseInfo</v>
+        <v>placementInfo</v>
       </c>
       <c r="T1" t="str">
-        <v>admissionInfo</v>
+        <v>fee</v>
       </c>
       <c r="U1" t="str">
-        <v>placementInfo</v>
+        <v>ranking</v>
       </c>
       <c r="V1" t="str">
-        <v>fee</v>
+        <v>cutoff</v>
       </c>
       <c r="W1" t="str">
-        <v>ranking</v>
+        <v>campusInfo</v>
       </c>
       <c r="X1" t="str">
-        <v>cutoff</v>
+        <v>scholarshipInfo</v>
       </c>
       <c r="Y1" t="str">
-        <v>campusInfo</v>
+        <v>minFees</v>
       </c>
       <c r="Z1" t="str">
-        <v>scholarshipInfo</v>
+        <v>maxFees</v>
       </c>
       <c r="AA1" t="str">
-        <v>minFees</v>
+        <v>affiliation</v>
       </c>
       <c r="AB1" t="str">
-        <v>maxFees</v>
+        <v>highestPackage</v>
       </c>
       <c r="AC1" t="str">
-        <v>affiliation</v>
+        <v>streams</v>
       </c>
       <c r="AD1" t="str">
-        <v>highestPackage</v>
+        <v>specialization</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>facilities</v>
       </c>
       <c r="AF1" t="str">
-        <v>streams</v>
+        <v>password</v>
       </c>
       <c r="AG1" t="str">
-        <v>specialization</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>gallery</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>facilities</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>password</v>
+        <v>status</v>
       </c>
     </row>
     <row r="2">
@@ -537,71 +534,65 @@
       <c r="J2" t="str">
         <v>logoA.png</v>
       </c>
-      <c r="K2" t="str">
-        <v>coverA.png</v>
-      </c>
-      <c r="L2" t="str">
-        <v>thumbA.png</v>
-      </c>
       <c r="M2" t="str">
         <v>Private</v>
       </c>
-      <c r="N2" t="str">
-        <v>brochureA.pdf</v>
+      <c r="O2" t="str">
+        <v>Course A, Course B</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Info A</v>
       </c>
       <c r="Q2" t="str">
-        <v>Info A</v>
+        <v>Info B</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Info C</v>
       </c>
       <c r="S2" t="str">
-        <v>Info B</v>
-      </c>
-      <c r="T2" t="str">
-        <v>Info C</v>
-      </c>
-      <c r="U2" t="str">
         <v>Info D</v>
       </c>
+      <c r="T2">
+        <v>1000</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
       <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
         <v>50</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="W2" t="str">
         <v>Info E</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="X2" t="str">
         <v>Info F</v>
       </c>
-      <c r="AA2">
+      <c r="Y2">
         <v>500</v>
       </c>
+      <c r="Z2">
+        <v>2000</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>Affiliation A</v>
+      </c>
       <c r="AB2">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="AC2" t="str">
-        <v>Affiliation A</v>
-      </c>
-      <c r="AD2">
-        <v>100000</v>
+        <v>Stream A, Stream B</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>Specialization A</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>Facility A</v>
       </c>
       <c r="AF2" t="str">
-        <v>Stream A, Stream B</v>
+        <v>passwordA</v>
       </c>
       <c r="AG2" t="str">
-        <v>Specialization A</v>
-      </c>
-      <c r="AH2" t="str">
-        <v>galleryA.png</v>
-      </c>
-      <c r="AI2" t="str">
-        <v>Facility A</v>
-      </c>
-      <c r="AJ2" t="str">
-        <v>passwordA</v>
+        <v>Active</v>
       </c>
     </row>
     <row r="3">
@@ -635,71 +626,65 @@
       <c r="J3" t="str">
         <v>logoB.png</v>
       </c>
-      <c r="K3" t="str">
-        <v>coverB.png</v>
-      </c>
-      <c r="L3" t="str">
-        <v>thumbB.png</v>
-      </c>
       <c r="M3" t="str">
         <v>Public</v>
       </c>
-      <c r="N3" t="str">
-        <v>brochureB.pdf</v>
+      <c r="O3" t="str">
+        <v>Course C, Course D</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Info G</v>
       </c>
       <c r="Q3" t="str">
-        <v>Info G</v>
+        <v>Info H</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Info I</v>
       </c>
       <c r="S3" t="str">
-        <v>Info H</v>
-      </c>
-      <c r="T3" t="str">
-        <v>Info I</v>
-      </c>
-      <c r="U3" t="str">
         <v>Info J</v>
       </c>
+      <c r="T3">
+        <v>2000</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
       <c r="V3">
-        <v>2000</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3">
         <v>60</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="W3" t="str">
         <v>Info K</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="X3" t="str">
         <v>Info L</v>
       </c>
-      <c r="AA3">
+      <c r="Y3">
         <v>1000</v>
       </c>
+      <c r="Z3">
+        <v>3000</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>Affiliation B</v>
+      </c>
       <c r="AB3">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="AC3" t="str">
-        <v>Affiliation B</v>
-      </c>
-      <c r="AD3">
-        <v>150000</v>
+        <v>Stream C, Stream D</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>Specialization B</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>Facility B</v>
       </c>
       <c r="AF3" t="str">
-        <v>Stream C, Stream D</v>
+        <v>passwordB</v>
       </c>
       <c r="AG3" t="str">
-        <v>Specialization B</v>
-      </c>
-      <c r="AH3" t="str">
-        <v>galleryB.png</v>
-      </c>
-      <c r="AI3" t="str">
-        <v>Facility B</v>
-      </c>
-      <c r="AJ3" t="str">
-        <v>passwordB</v>
+        <v>Inactive</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +694,7 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="H3" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:AJ3"/>
   </ignoredErrors>
